--- a/datas/python_api_testcases.xlsx
+++ b/datas/python_api_testcases.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\python_workspace\api-test\datas\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="7785" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7785" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="register" sheetId="1" r:id="rId1"/>
@@ -18,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="413" uniqueCount="138">
   <si>
     <t>case_id</t>
   </si>
@@ -437,14 +442,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="21">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -455,349 +454,27 @@
     <font>
       <sz val="11"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <sz val="9"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -805,251 +482,9 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="2">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="8">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="3">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1068,61 +503,17 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1409,19 +800,19 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="8" style="4" customWidth="1"/>
     <col min="2" max="2" width="10.875" style="4" customWidth="1"/>
@@ -1431,7 +822,7 @@
     <col min="6" max="6" width="56.25" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:8">
+    <row r="1" spans="1:8" s="1" customFormat="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1718,22 +1109,21 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="2.75" style="4" customWidth="1"/>
     <col min="2" max="2" width="18.25" style="4" customWidth="1"/>
@@ -2161,22 +1551,21 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="3.125" style="1" customWidth="1"/>
     <col min="2" max="2" width="29.75" style="4" customWidth="1"/>
@@ -2550,22 +1939,21 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="4.125" style="1" customWidth="1"/>
     <col min="2" max="2" width="18.875" style="4" customWidth="1"/>
@@ -2964,21 +2352,20 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <headerFooter/>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="5.875" style="1" customWidth="1"/>
     <col min="6" max="6" width="13.75" customWidth="1"/>
@@ -3037,7 +2424,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:8">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -3049,7 +2436,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <headerFooter/>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
 </worksheet>
 </file>